--- a/excel/data.xlsx
+++ b/excel/data.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,361 +430,65 @@
     </row>
     <row r="2" xml:space="preserve">
       <c r="A2">
-        <v>1920</v>
+        <v>1000</v>
       </c>
       <c r="B2" t="str">
-        <v>Man rescued from deep pit at construction site in Yakutia, Russia</v>
+        <v>Charismatic man dancing with a glass of beer on his head!</v>
       </c>
       <c r="C2" t="str">
-        <v>https://viralbear.storage.yandexcloud.net/videos/1920.mp4</v>
+        <v>https://viralbear.storage.yandexcloud.net/images/10d2ca5e-c5b4-46e0-8a25-37ce33a20905.mp4</v>
       </c>
       <c r="D2" t="str" xml:space="preserve">
-        <v xml:space="preserve">In the early evening hours of April 18th, 2023, a man fell into a deep pit at a construction site in Yakutia, Russia. The guard on duty was doing his night rounds when he stumbled into the hole, which was deep enough to make it impossible for him to climb out on his own._x000d_
+        <v xml:space="preserve">10 September 2022, Minsk, Belarus_x000d_
 _x000d_
-Upon receiving the distress call, a team of rescuers from the Ministry of Emergency Situations in the Republic of Sakha (Yakutia) arrived at the site. They quickly assessed the situation and began to formulate a plan to rescue the victim._x000d_
-_x000d_
-The pit was 12 to 15 meters deep, which meant that the rescuers had to use climbing equipment to reach the victim. One of the rescuers descended into the pit, carefully navigating the narrow space to reach the victim. Once he was close enough, he tied a safety harness around the victim and secured it to himself, ensuring that the victim would not fall further._x000d_
-_x000d_
-The other rescuer then carefully guided the two men up to the surface, using a system of pulleys and ropes to ensure their safety. The operation was tense and delicate, with the slightest mistake potentially causing the harness to come loose, putting both men at risk._x000d_
-_x000d_
-Fortunately, the rescue was successful, and the victim was handed over to the waiting medical team.</v>
+Charismatic man dancing with a glass of beer on his head </v>
       </c>
       <c r="E2" t="str">
-        <v>2023-04-18</v>
+        <v>2022-09-10</v>
       </c>
       <c r="F2" t="str">
-        <v>Yakutia</v>
+        <v>Minsk</v>
       </c>
       <c r="G2" t="str">
-        <v>Russia</v>
+        <v>Belarus</v>
       </c>
       <c r="H2" t="str">
-        <v>construction,site,pit,accident,rescue,Yakutia,Russia,emergency,team,climbing,equipment,guard,night,rounds,deep,hole,safety,harness,medical,hospital</v>
+        <v>dance,dancing,cool,beer</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
       <c r="A3">
-        <v>1921</v>
+        <v>1001</v>
       </c>
       <c r="B3" t="str">
-        <v>Petersburg man bravely rescues drowning dog in Serebryany Pond Park</v>
+        <v>The impressive descent of a huge amount of ice from the mountain in Queulat National Park!</v>
       </c>
       <c r="C3" t="str">
-        <v>https://viralbear.storage.yandexcloud.net/videos/1921.mp4</v>
+        <v>https://viralbear.storage.yandexcloud.net/images/f10bc432-5085-40de-8504-579361b5f727.mp4</v>
       </c>
       <c r="D3" t="str" xml:space="preserve">
-        <v xml:space="preserve">In a heartwarming display of bravery and kindness, a man in St. Petersburg rescued a dog from drowning in a local park on Friday, April 14. The incident occurred in the Serebryany Pond park, a popular spot in the Vyborgsky district of the city._x000d_
+        <v xml:space="preserve">12 September 2022, Queulat National Park, Chile_x000d_
 _x000d_
-The rescue was caught on video and quickly circulated on social media, with many people praising the man for his heroism. In the footage, the man can be seen diving into the water to save the dog, who was struggling to stay afloat. He quickly grabbed the animal and brought it to the shore, where it was reunited with its grateful owner._x000d_
+The author: "We are witnessing another sign of glacier retreat and the effects of global warming."_x000d_
 _x000d_
-Locals in the area have affectionately nicknamed the park "Serebka," and it is a well-known spot for walking dogs and enjoying the outdoors._x000d_
-_x000d_
-The man's bravery and quick thinking likely saved the dog's life, and his actions have earned him praise and admiration from the community. The video of the rescue has been shared widely on social media, with many people expressing their gratitude to the man for his selfless act.</v>
+Credit to: @surreal.travel</v>
       </c>
       <c r="E3" t="str">
-        <v>2023-04-14</v>
+        <v>2022-09-12</v>
       </c>
       <c r="F3" t="str">
-        <v>St. Petersburg</v>
+        <v>Queulat National Park</v>
       </c>
       <c r="G3" t="str">
-        <v>Russia</v>
+        <v>Chile</v>
       </c>
       <c r="H3" t="str">
-        <v>st. petersburg,russia,dog,rescue,pond,park,serebryany,hero,bravery,kindness,video,social media,community,pet,swimming,water,outdoors,gratitude,selfless,act</v>
-      </c>
-    </row>
-    <row r="4" xml:space="preserve">
-      <c r="A4">
-        <v>1922</v>
-      </c>
-      <c r="B4" t="str">
-        <v>Kamchatka village grapples with uninvited resident bear on porch of residential building</v>
-      </c>
-      <c r="C4" t="str">
-        <v>https://viralbear.storage.yandexcloud.net/videos/1922.mp4</v>
-      </c>
-      <c r="D4" t="str" xml:space="preserve">
-        <v xml:space="preserve">In the small village of Ganaly in Kamchatka, Russia, residents have found themselves with an unusual problem - an uninvited bear who has taken a liking to one of the porches of a residential building. Despite being escorted back into the forest twice, the bear keeps returning to the same spot. this video footage captured on 19th April, 2023 shows the bear resting on his favorite porch._x000d_
-_x000d_
-Locals say that the bear has been peaceful so far, but they are unsure how to deal with the situation. Officials have been contacted for help, but a solution has yet to be found._x000d_
-_x000d_
-It is unclear why the bear has chosen this particular spot as its resting place. Perhaps it simply wants to be closer to people, or maybe it feels safe and comfortable there. Regardless of the reason, the residents of Ganaly are left with a dilemma on how to handle the situation._x000d_
-_x000d_
-Bears are not uncommon in Kamchatka, but encountering one on your porch is certainly not an everyday occurrence. The residents of Ganaly are understandably nervous about the presence of such a large and powerful animal in such close proximity to their homes.</v>
-      </c>
-      <c r="E4" t="str">
-        <v>2023-04-19</v>
-      </c>
-      <c r="F4" t="str">
-        <v>Kamchatka</v>
-      </c>
-      <c r="G4" t="str">
-        <v>Russia</v>
-      </c>
-      <c r="H4" t="str">
-        <v>kamchatka,village,bear,porch,residential,building,uninvited,peaceful,officials,dilemma,wildlife,habitat,coexist,balance,neighbors,escort,forest,solution,nervous,attention</v>
-      </c>
-    </row>
-    <row r="5" xml:space="preserve">
-      <c r="A5">
-        <v>1923</v>
-      </c>
-      <c r="B5" t="str">
-        <v>Tornado touches down near Purcell, Oklahoma causing power outages</v>
-      </c>
-      <c r="C5" t="str">
-        <v>https://viralbear.storage.yandexcloud.net/videos/1923.mp4</v>
-      </c>
-      <c r="D5" t="str" xml:space="preserve">
-        <v xml:space="preserve">Purcell, Oklahoma, USA - A tornado touched down near Purcell, Oklahoma, on April 19th, 2023, causing power outages in the area. The National Weather Service had issued a tornado warning for many regions, including Purcell, earlier in the day._x000d_
-_x000d_
-According to eyewitness accounts and footage captured by @RylanLopez10, the tornado touched down in a rural area just outside of Purcell. The tornado caused power flashes, indicating that power lines had been damaged or knocked down, and witnesses reported hearing loud, rumbling noises._x000d_
-_x000d_
-The tornado is part of a severe weather system that has been moving through the southern United States, bringing heavy rain, strong winds, and the risk of tornadoes to many areas. The National Weather Service has urged residents in affected areas to stay alert and be prepared to take action if necessary.</v>
-      </c>
-      <c r="E5" t="str">
-        <v>2023-04-19</v>
-      </c>
-      <c r="F5" t="str">
-        <v>Purcell, Oklahoma</v>
-      </c>
-      <c r="G5" t="str">
-        <v>USA</v>
-      </c>
-      <c r="H5" t="str">
-        <v>tornado,warning,purcell,oklahoma,power,flashes,rural,area,shelter,emergency,responders,injuries,fatalities,severe,weather,system,southern,united,states,alert</v>
-      </c>
-    </row>
-    <row r="6" xml:space="preserve">
-      <c r="A6">
-        <v>1924</v>
-      </c>
-      <c r="B6" t="str">
-        <v>Riding the rails: miniature steam train delights in Leyland, Lancashire</v>
-      </c>
-      <c r="C6" t="str">
-        <v>https://viralbear.storage.yandexcloud.net/videos/1924.mp4</v>
-      </c>
-      <c r="D6" t="str" xml:space="preserve">
-        <v xml:space="preserve">In Leyland, Lancashire, a group of steam train enthusiasts gathered on March 5th, 2023 to ride a miniature train along miniature rails. The locomotive, a 5-inch gauge scale replica of a GWR Pannier Tank, was built by one of the club members, John, in his garage using his own engineering skills and designs created many years ago._x000d_
-_x000d_
-The event was captured on video by @fletch6619, a steam train enthusiast who is passionate about building awareness of the hobby among younger generations. _x000d_
-_x000d_
-The video shows a group of adults and children riding the miniature train, with smiles on their faces and excitement in their voices. As the train chugs along the miniature rails, it's easy to see why this hobby is so beloved by those who partake in it._x000d_
-_x000d_
-Steam train enthusiasts often cite the sense of nostalgia and connection to the past as reasons for their love of the hobby. Miniature live steam trains, in particular, offer a unique experience that allows enthusiasts to feel like they are in control of a real train, even though it is only a small replica._x000d_
-_x000d_
-John, the builder of the locomotive, is a prime example of the passion and dedication that many steam train enthusiasts have for their hobby. By using his engineering skills and his own designs, he was able to create a beautiful replica of the GWR Pannier Tank, which is a testament to the craftsmanship and attention to detail that goes into miniature live steam trains.</v>
-      </c>
-      <c r="E6" t="str">
-        <v>2023-03-05</v>
-      </c>
-      <c r="F6" t="str">
-        <v>Leyland, Lancashire</v>
-      </c>
-      <c r="G6" t="str">
-        <v>UK</v>
-      </c>
-      <c r="H6" t="str">
-        <v>leyland,lancashire,steam,train,miniature,rails,locomotive,hobby,passion,engineering,craftsmanship,replica,pannier,tank,nostalgia,past,control,excitement,joy,enthusiasts</v>
-      </c>
-    </row>
-    <row r="7" xml:space="preserve">
-      <c r="A7">
-        <v>1925</v>
-      </c>
-      <c r="B7" t="str">
-        <v>Explosion in Belgorod: shocking footage of Su-34 bomber ammo mishap on street intersection!</v>
-      </c>
-      <c r="C7" t="str">
-        <v>https://viralbear.storage.yandexcloud.net/videos/1925.mp4</v>
-      </c>
-      <c r="D7" t="str" xml:space="preserve">
-        <v xml:space="preserve">On April 20, 2023, residents of Belgorod, Russia were caught off guard by a sudden and violent explosion that rocked the intersection of Gubkin and Vatutin streets. _x000d_
-_x000d_
-The video begins with a bomb plummeting onto the road, followed by a massive blast that sends debris and earth soaring several meters into the air. It is reported that the explosion was triggered by an "unscheduled ammunition release" from a Su-34 bomber, as confirmed by the Ministry of Defense. The force of the blast was so intense that it propelled a parked car into the air, slamming it onto the roof of a nearby building._x000d_
-_x000d_
-Three people were injured, and several vehicles were damaged. The blast shattered windows in multiple nearby high-rise buildings, sending shards of glass raining down on the streets._x000d_
-_x000d_
-Authorities quickly responded to the incident, cordoning off the area and launching an investigation into the cause of the mishap. The incident left residents of Belgorod shaken and in disbelief, as the video footage circulated widely on social media, capturing the sheer force and destructive power of the explosion.</v>
-      </c>
-      <c r="E7" t="str">
-        <v>2023-04-20</v>
-      </c>
-      <c r="F7" t="str">
-        <v>Belgorod</v>
-      </c>
-      <c r="G7" t="str">
-        <v>Russia</v>
-      </c>
-      <c r="H7" t="str">
-        <v>Explosion,Belgorod,Russia,Su-34,Bomber,Ammo,Mishap,Street,Intersection,Video,Footage,Shocking,Chaos,Damage,Injuries,Investigation,Safety,Security,Protocol,Recovery</v>
-      </c>
-    </row>
-    <row r="8" xml:space="preserve">
-      <c r="A8">
-        <v>1926</v>
-      </c>
-      <c r="B8" t="str">
-        <v>Russian Su-34 fighter-bomber accidentally hits Belgorod, causes damage to residential area</v>
-      </c>
-      <c r="C8" t="str">
-        <v>https://viralbear.storage.yandexcloud.net/videos/1926.mp4</v>
-      </c>
-      <c r="D8" t="str" xml:space="preserve">
-        <v xml:space="preserve">In an unfortunate incident, a Su-34 fighter-bomber of the Russian Aerospace Forces inadvertently hit the city of Belgorod on April 20th, 2023. The incident occurred during the aircraft's flight over the city, causing damage to the residential area._x000d_
-_x000d_
-According to a statement by the Russian Defense Ministry, an abnormal descent of aviation ammunition occurred during the flight of the Su-34. The report did not specify the reason for the abnormal gathering of ammunition or what type of ammunition fell._x000d_
-_x000d_
-The Belgorod region borders Ukraine, which has been under attack by Russian aircraft for more than a year. It is unclear why the Su-34 with such ammunition flew over the residential areas of Belgorod and did not bypass the city._x000d_
-_x000d_
-Fortunately, no casualties were reported from the incident. However, a huge funnel formed in the middle of the residential area, and one passenger car was thrown onto the roof of a store by the blast wave. The blast also damaged several parked cars and knocked down power lines, causing damage to neighboring buildings._x000d_
-_x000d_
-Governor of the Belgorod region, Vyacheslav Gladkov, confirmed the incident and estimated the diameter of the funnel at 20 meters. A photo of the huge crater at the intersection of Vatutin and Gubkin streets was widely shared on social media and news channels._x000d_
-_x000d_
-The Su-34 is a front-line supersonic fighter-bomber designed to deliver missile and bomb strikes against enemy ground targets in operational and tactical depth, as well as to destroy enemy air targets. The aircraft is armed with air bombs, unguided and guided air missiles, as well as cannon mount shells.</v>
-      </c>
-      <c r="E8" t="str">
-        <v>2023-04-20</v>
-      </c>
-      <c r="F8" t="str">
-        <v>Belgorod</v>
-      </c>
-      <c r="G8" t="str">
-        <v>Russia</v>
-      </c>
-      <c r="H8" t="str">
-        <v>belgorod,russia,su-34,fighter-bomber,russian aerospace forces,ammunition,abnormal descent,residential area,damage,funnel,passenger car,blast wave,power lines,governor,investigation,safety measures,military aircraft,populated areas,unintended harm,infrastructure</v>
-      </c>
-    </row>
-    <row r="9" xml:space="preserve">
-      <c r="A9">
-        <v>1927</v>
-      </c>
-      <c r="B9" t="str">
-        <v>Extinction Rebellion protesters demand action on climate crisis outside government departments in Westminster</v>
-      </c>
-      <c r="C9" t="str">
-        <v>https://viralbear.storage.yandexcloud.net/videos/1927.mp4</v>
-      </c>
-      <c r="D9" t="str" xml:space="preserve">
-        <v xml:space="preserve">Hundreds of activists from the climate change activist group, Extinction Rebellion, gathered outside key government departments in Westminster, UK on 21st April, 2023 to demand urgent action on the climate crisis._x000d_
-_x000d_
-According to a video footage captured by @nickdunni, the protesters held placards with messages regarding climate change as they chanted slogans demanding immediate action from the government. _x000d_
-_x000d_
-The protest comes as the world continues to grapple with the devastating effects of climate change, including rising sea levels, more frequent and intense weather events, and the loss of biodiversity. Scientists have warned that urgent action is needed to prevent catastrophic and irreversible damage to the planet._x000d_
-_x000d_
-The UK government has recently announced several initiatives aimed at tackling the climate crisis, including a ban on the sale of new petrol and diesel cars from 2030 and a commitment to achieve net-zero emissions by 2050. However, activists argue that more needs to be done, and that the government's actions do not go far enough.</v>
-      </c>
-      <c r="E9" t="str">
-        <v>2023-04-21</v>
-      </c>
-      <c r="F9" t="str">
-        <v>Westminster</v>
-      </c>
-      <c r="G9" t="str">
-        <v>UK</v>
-      </c>
-      <c r="H9" t="str">
-        <v>westminster,climate,crisis,protest,activists,extinction rebellion,government,action,urgency,environment,greenhouse gases,renewable energy,net-zero,ban,petrol,diesel,cars,science,biodiversity,future</v>
-      </c>
-    </row>
-    <row r="10" xml:space="preserve">
-      <c r="A10">
-        <v>1928</v>
-      </c>
-      <c r="B10" t="str">
-        <v xml:space="preserve">Sailor's bacon heist from mom's plate </v>
-      </c>
-      <c r="C10" t="str">
-        <v>https://viralbear2.storage.yandexcloud.net/videos/1928.mp4</v>
-      </c>
-      <c r="D10" t="str" xml:space="preserve">
-        <v xml:space="preserve">In March 16th, 2023, a video captured by a mother in Payson, Utah, USA went viral on social media. The video features her toddler daughter, Sailor, who is almost two years old, standing on a chair beside her as she eats breakfast. The mother, @lala.kenn, was filming Sailor dancing when suddenly she notices the little one reaching over to grab a piece of bacon from her plate. Sailor quickly snatches the bacon and scurries away, giving her mom a cheeky smile and a sideways glance._x000d_
-_x000d_
-The video is heartwarming and hilarious at the same time. It shows the pure joy and innocence of a child who is just learning about the world around her. Sailor's bacon heist shows her curious and mischievous side.</v>
-      </c>
-      <c r="E10" t="str">
-        <v>2023-03-16</v>
-      </c>
-      <c r="F10" t="str">
-        <v>Payson, Utah</v>
-      </c>
-      <c r="G10" t="str">
-        <v>United States</v>
-      </c>
-      <c r="H10" t="str">
-        <v>toddler,bacon,theft,dance,funny,heist,mischief,innocence,joy,curiosity,video,viral,social media,cute,funny,heartwarming,family,parenting,love,happiness</v>
-      </c>
-    </row>
-    <row r="11" xml:space="preserve">
-      <c r="A11">
-        <v>1929</v>
-      </c>
-      <c r="B11" t="str">
-        <v>Inadequate man kicks Karaganda resident down escalator, identified and placed in psycho-neurological dispensary</v>
-      </c>
-      <c r="C11" t="str">
-        <v>https://viralbear2.storage.yandexcloud.net/videos/1929.mp4</v>
-      </c>
-      <c r="D11" t="str" xml:space="preserve">
-        <v xml:space="preserve">A 25-year-old resident of Karaganda, Kazakhstan, was subjected to an unprovoked attack while descending an escalator in a shopping center on April 18th, 2023. The victim was kicked in the back by a 31-year-old man who was reportedly in an inadequate state._x000d_
-_x000d_
-According to police the victim was sent flying down the stairs and suffered bodily harm as a result. The police were alerted to the incident and subsequently registered a criminal case under Article 293 of Part 1 of the Criminal Code of the Republic of Kazakhstan, which pertains to hooliganism._x000d_
-_x000d_
-The perpetrator was identified by the police and placed in a psycho-neurological dispensary due to his alleged inadequate condition at the time of the attack. The Karaganda Region Police Department issued a statement on the matter, confirming the status of the case._x000d_
-_x000d_
-It is unclear what motivated the attacker to commit such a violent act.</v>
-      </c>
-      <c r="E11" t="str">
-        <v>2023-04-18</v>
-      </c>
-      <c r="F11" t="str">
-        <v>Karaganda</v>
-      </c>
-      <c r="G11" t="str">
-        <v>Kazakhstan</v>
-      </c>
-      <c r="H11" t="str">
-        <v>karaganda,kazakhstan,shopping center,attack,victim,escalator,hooliganism,criminal case,police,inadequate,psycho-neurological,dispensary,bodily harm,perpetrator,violence,law enforcement,justice,community,trauma,mental health</v>
-      </c>
-    </row>
-    <row r="12" xml:space="preserve">
-      <c r="A12">
-        <v>1930</v>
-      </c>
-      <c r="B12" t="str">
-        <v>Ollie's howling serenade: a heartwarming moment captured at a Los Angeles wedding</v>
-      </c>
-      <c r="C12" t="str">
-        <v>https://viralbear2.storage.yandexcloud.net/videos/1930.mp4</v>
-      </c>
-      <c r="D12" t="str" xml:space="preserve">
-        <v xml:space="preserve">Dogs are known for their loyalty, affection, and occasional mischievousness. However, some dogs also have hidden talents that can surprise and delight their owners and others. One such dog is Ollie, a furry friend from Los Angeles who recently stole the show with her unexpected howling solo._x000d_
-_x000d_
-According to Ollie's @officialsanderslosangeles, who shared the video of her dog while home alone on social media, she had left Ollie alone at home for a few hours while attending a family friend's wedding. As a responsible pet parent, she wanted to check on her furry companion and see if everything was alright._x000d_
-_x000d_
-To her surprise, when she switched on her camera to see Ollie's whereabouts, she saw the dog seated on its chair. Suddenly, Ollie lifted her paws and started howling._x000d_
-_x000d_
-The owner captured the magical moment on video and shared it with her followers, who were equally amazed by Ollie's cuteness. </v>
-      </c>
-      <c r="E12" t="str">
-        <v>2023-04-15</v>
-      </c>
-      <c r="F12" t="str">
-        <v>Los Angeles</v>
-      </c>
-      <c r="G12" t="str">
-        <v>United States</v>
-      </c>
-      <c r="H12" t="str">
-        <v>dog,Ollie,chair,howl,camera,home alone,wedding,family,friends,Los Angeles,USA,pets,canine,entertainment,viral,social media,technology,surveillance,funny,adorable</v>
+        <v>ice,Keulat National Park,avalanche</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:H12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H3"/>
   </ignoredErrors>
 </worksheet>
 </file>